--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/46/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/46/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3133133133133133</v>
+        <v>0.7824782478247825</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>918.918918918919</v>
+        <v>1620.912091209121</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09839839839839841</v>
+        <v>0.04325432543254325</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2572572572572572</v>
+        <v>0.3861386138613861</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1211.211211211211</v>
+        <v>812.7612761276127</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>879.8798798798799</v>
+        <v>884.1584158415842</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>904.904904904905</v>
+        <v>830.7524752475247</v>
       </c>
     </row>
   </sheetData>
